--- a/appendix/mean_accuracy_top4th.xlsx
+++ b/appendix/mean_accuracy_top4th.xlsx
@@ -525,7 +525,7 @@
         <v>0.756</v>
       </c>
       <c r="G3" t="n">
-        <v>0.644</v>
+        <v>0.643</v>
       </c>
       <c r="H3" t="n">
         <v>0.676</v>

--- a/appendix/mean_accuracy_top4th.xlsx
+++ b/appendix/mean_accuracy_top4th.xlsx
@@ -569,22 +569,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.635</v>
+        <v>0.642</v>
       </c>
       <c r="D5" t="n">
-        <v>0.726</v>
+        <v>0.738</v>
       </c>
       <c r="E5" t="n">
-        <v>0.755</v>
+        <v>0.763</v>
       </c>
       <c r="F5" t="n">
-        <v>0.793</v>
+        <v>0.803</v>
       </c>
       <c r="G5" t="n">
-        <v>0.694</v>
+        <v>0.705</v>
       </c>
       <c r="H5" t="n">
-        <v>0.696</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="6">
@@ -618,29 +618,29 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings</t>
+          <t>classical-best-embed</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.64</v>
+        <v>0.642</v>
       </c>
       <c r="D7" t="n">
         <v>0.754</v>
       </c>
       <c r="E7" t="n">
-        <v>0.755</v>
+        <v>0.763</v>
       </c>
       <c r="F7" t="n">
-        <v>0.793</v>
+        <v>0.803</v>
       </c>
       <c r="G7" t="n">
-        <v>0.694</v>
+        <v>0.705</v>
       </c>
       <c r="H7" t="n">
-        <v>0.696</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.67</v>
+        <v>0.668</v>
       </c>
       <c r="D8" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="E8" t="n">
-        <v>0.789</v>
+        <v>0.797</v>
       </c>
       <c r="F8" t="n">
-        <v>0.806</v>
+        <v>0.803</v>
       </c>
       <c r="G8" t="n">
-        <v>0.722</v>
+        <v>0.742</v>
       </c>
       <c r="H8" t="n">
-        <v>0.739</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.543</v>
       </c>
       <c r="C9" t="n">
-        <v>0.651</v>
+        <v>0.63</v>
       </c>
       <c r="D9" t="n">
-        <v>0.728</v>
+        <v>0.747</v>
       </c>
       <c r="E9" t="n">
-        <v>0.757</v>
+        <v>0.772</v>
       </c>
       <c r="F9" t="n">
-        <v>0.779</v>
+        <v>0.776</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.697</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
